--- a/Research/RemoteHeadPackets.xlsx
+++ b/Research/RemoteHeadPackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SleepyNinja\.git\TH9800_CAT\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FD9E5A-6526-4EA1-A064-5AA1532A3A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CB1E11-FD4E-4EF1-B7F7-14321364F8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96F0B5EF-7042-4BBD-B54F-B5D392DC829F}"/>
+    <workbookView xWindow="19090" yWindow="-10910" windowWidth="38620" windowHeight="21100" activeTab="10" xr2:uid="{96F0B5EF-7042-4BBD-B54F-B5D392DC829F}"/>
   </bookViews>
   <sheets>
     <sheet name="Packets TX" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="RX_V-M" sheetId="12" r:id="rId8"/>
     <sheet name="RX when PTT" sheetId="14" r:id="rId9"/>
     <sheet name="Power On Seq" sheetId="15" r:id="rId10"/>
+    <sheet name="RX NOTES" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="377">
   <si>
     <t>0xAA</t>
   </si>
@@ -940,12 +941,6 @@
     <t>TX from Head</t>
   </si>
   <si>
-    <t>0xB1</t>
-  </si>
-  <si>
-    <t>0xB6</t>
-  </si>
-  <si>
     <t>0xFC</t>
   </si>
   <si>
@@ -987,12 +982,721 @@
   <si>
     <t>LOCK/UNLOCK KEYPAD</t>
   </si>
+  <si>
+    <t>0x18</t>
+  </si>
+  <si>
+    <t>Low (KEY2: MHz)</t>
+  </si>
+  <si>
+    <t>V/M (KEY2: RPT)</t>
+  </si>
+  <si>
+    <t>HM (KEY2: TONE)</t>
+  </si>
+  <si>
+    <t>SCN (KEY2: SUB)</t>
+  </si>
+  <si>
+    <t>[0xAA][0xFD][0x02][0x11][0x81][0x92]</t>
+  </si>
+  <si>
+    <t>[0xAA][0xFD][0x02][0x03][0x43][0x42][0xAA][0xFD][0x06][0x02][0x40][0x00][0x20][0x20][0x32][0x76][0xAA][0xFD][0x09][0x01][0x40][0x00][0x32][0x41][0x50][0x52][0x53][0x20][0x4A][0xAA][0xFD][0x08][0x04][0x40][0x00][0x00][0x80][0x00][0x00][0x08][0xC4][0xAA][0xFD][0x02][0x03][0x03][0x02]</t>
+  </si>
+  <si>
+    <t>No KEY2</t>
+  </si>
+  <si>
+    <t>W/KEY2</t>
+  </si>
+  <si>
+    <t>[0xAA][0xFD][0x02][0x03][0x43][0x42][0xAA][0xFD][0x06][0x02][0x40][0x00][0x20][0x20][0x33][0x77][0xAA][0xFD][0x09][0x01][0x40][0x00][0x32][0x43][0x41][0x4C][0x4C][0x20][0x58][0xAA][0xFD][0x02][0x11][0x81][0x92][0xAA][0xFD][0x08][0x04][0x40][0x00][0x20][0x80][0x00][0x00][0x08][0xE4][0xAA][0xFD][0x02][0x03][0x03][0x02]</t>
+  </si>
+  <si>
+    <t>Remove TX Sybmol</t>
+  </si>
+  <si>
+    <t>Add TX Symbol</t>
+  </si>
+  <si>
+    <t>Add 3 sig bars</t>
+  </si>
+  <si>
+    <t>Remove sig bars</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Enable Low Icon (L)</t>
+  </si>
+  <si>
+    <t>Enable Medium Icon (L)</t>
+  </si>
+  <si>
+    <t>Disable Low Icon (L)</t>
+  </si>
+  <si>
+    <t>Disable Medium Icon (L)</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Used to set Channel (3 characters) [\s\s3]</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Used to set display text (6 characters) [\s\sLOW\s]</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>Data3</t>
+  </si>
+  <si>
+    <t>Data4</t>
+  </si>
+  <si>
+    <t>Data5</t>
+  </si>
+  <si>
+    <t>Data6</t>
+  </si>
+  <si>
+    <t>Data7</t>
+  </si>
+  <si>
+    <t>Data8</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Used to refresh display?</t>
+  </si>
+  <si>
+    <r>
+      <t>AAFD0210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13AAFD02034342AAFD0602400020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3134</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>61AAFD09014000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4B45594D4F44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>59AAFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>022541</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66AAFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021441</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>57AAFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50AAFD02030302</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AAFD0210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12AAFD02034342AAFD0602400020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2031</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>75AAFD09014000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3253494D5058</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25AAFD080440000080000008C4AAFD02030302</t>
+    </r>
+  </si>
+  <si>
+    <t>RPT OFFSET ICON</t>
+  </si>
+  <si>
+    <t>KEY2 ICON</t>
+  </si>
+  <si>
+    <t>SET ICON (menu)</t>
+  </si>
+  <si>
+    <t>ENC DEC ENCDEC DCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable KEY2 ICON (R) </t>
+  </si>
+  <si>
+    <t>Disable KEY2 ICON (R)</t>
+  </si>
+  <si>
+    <r>
+      <t>AAFD02034041AAFD090140004B455920</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>202EAAFD02254067AAFD02030001AAFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>93</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AAFD02034041AAFD090140004B455920</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>202DAAFD02254067AAFD02030001AAFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92</t>
+    </r>
+  </si>
+  <si>
+    <t>AAFD02118093 - Disable</t>
+  </si>
+  <si>
+    <t>AAFD02118192 - Enable</t>
+  </si>
+  <si>
+    <t>AAFD02100012 - Disable</t>
+  </si>
+  <si>
+    <t>AAFD02100113 - Enable</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Disable SET Icon</t>
+  </si>
+  <si>
+    <t>Enable SET Icon</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>AAFD02170114 (-)</t>
+  </si>
+  <si>
+    <t>AAFD02160115 (+)</t>
+  </si>
+  <si>
+    <t>AAFD02160014 (remove +)</t>
+  </si>
+  <si>
+    <t>AAFD02170015 (remove -)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Remove Neg Offset Icon (L)</t>
+  </si>
+  <si>
+    <t>Add Neg Offset Icon (L)</t>
+  </si>
+  <si>
+    <r>
+      <t>AAFD02034041AAFD09014000525054</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>202D20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33AAFD02254166AAFD02030001AAFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14AAFD0217</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">14        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- offset</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AAFD02034041AAFD09014000525054</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>202B20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>35AAFD02254166AAFD02030001AAFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021601</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15AAFD0217</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">15        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+offset</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AAFD02034041AAFD09014000525054</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4F4646</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>51AAFD02254166AAFD02030001AAFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14AAFD0217</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">15        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No Offset</t>
+    </r>
+  </si>
+  <si>
+    <t>Preamble2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,8 +1712,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1076,8 +1827,20 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1085,11 +1848,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1120,12 +1929,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1133,25 +1936,13 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1161,11 +1952,82 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1386,6 +2248,173 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1403,6 +2432,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D80A179C-B31E-43C3-87C6-732FE1D9BAAC}" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" headerRowBorderDxfId="48">
+  <autoFilter ref="A1:M20" xr:uid="{D80A179C-B31E-43C3-87C6-732FE1D9BAAC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M12">
+    <sortCondition ref="E1:E12"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{CD9FAA28-9D9E-4BEC-BD1F-24C37090924D}" name="Notes" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{13B24E8B-B1FF-40C0-A68D-F2AD19080FEE}" name="Preamble" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{BC7B38DB-29F2-45A7-8118-B376C72292E3}" name="Preamble2" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{8C74238B-E441-4CF6-8377-1938502F4764}" name="Pkt Len" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{14E6B72F-F470-492B-836A-86AFC92C6217}" name="CMD" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{D16C1A83-C1E0-4681-A258-D68A1BF3E85A}" name="Data" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{D07B0E56-2AA1-4589-AF53-8A7D15DEE845}" name="Data2" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{4FDD1125-7612-48D2-95BB-B06394750991}" name="Data3" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{A9BB44E0-A133-4943-83EF-D9A3EC1D9343}" name="Data4" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{B19CFFE3-B7ED-4D94-9DAD-AECC72DFFA12}" name="Data5" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{E090584C-B369-4B21-855B-9D386F9C3142}" name="Data6" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{7D714C2E-5A0F-44AB-A66F-CD4B61CAB118}" name="Data7" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{C5512BCA-369B-4ADD-A1A9-4A32AED2B01E}" name="Data8" dataDxfId="35"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1724,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D94CF-A2A0-4F25-9A9F-F93989AAC083}">
   <dimension ref="A1:AZ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AI1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,40 +2788,40 @@
     <col min="3" max="3" width="9" style="7" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="7"/>
     <col min="5" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="10"/>
     <col min="20" max="21" width="9.140625" style="7"/>
     <col min="22" max="31" width="9.140625" style="4"/>
     <col min="32" max="32" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="9.140625" style="4"/>
-    <col min="35" max="35" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="R1" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="R1" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="U1" s="15"/>
+      <c r="U1" s="23"/>
       <c r="V1" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI1" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI1" s="22" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1798,7 +2852,7 @@
         <f ca="1"/>
         <v>FF</v>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="H2" s="9" t="str">
         <f ca="1"/>
         <v>01</v>
       </c>
@@ -1838,7 +2892,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R2" s="17" t="str">
+      <c r="R2" s="15" t="str">
         <f ca="1"/>
         <v>75</v>
       </c>
@@ -1906,7 +2960,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI2" s="17" t="str">
+      <c r="AI2" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -2006,7 +3060,7 @@
         <f ca="1"/>
         <v>FF</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="9" t="str">
         <f ca="1"/>
         <v>02</v>
       </c>
@@ -2046,7 +3100,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R3" s="17" t="str">
+      <c r="R3" s="15" t="str">
         <f ca="1"/>
         <v>76</v>
       </c>
@@ -2114,7 +3168,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI3" s="17" t="str">
+      <c r="AI3" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -2222,7 +3276,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="J4" s="6" t="str">
+      <c r="J4" s="9" t="str">
         <f ca="1"/>
         <v>25</v>
       </c>
@@ -2254,7 +3308,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R4" s="17" t="str">
+      <c r="R4" s="15" t="str">
         <f ca="1"/>
         <v>AE</v>
       </c>
@@ -2322,7 +3376,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI4" s="17" t="str">
+      <c r="AI4" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -2430,7 +3484,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="J5" s="6" t="str">
+      <c r="J5" s="9" t="str">
         <f ca="1"/>
         <v>25</v>
       </c>
@@ -2462,7 +3516,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R5" s="17" t="str">
+      <c r="R5" s="15" t="str">
         <f ca="1"/>
         <v>AE</v>
       </c>
@@ -2530,7 +3584,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI5" s="17" t="str">
+      <c r="AI5" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -2670,7 +3724,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R6" s="17" t="str">
+      <c r="R6" s="15" t="str">
         <f ca="1"/>
         <v>09</v>
       </c>
@@ -2738,7 +3792,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI6" s="17" t="str">
+      <c r="AI6" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -2878,7 +3932,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R7" s="17" t="str">
+      <c r="R7" s="15" t="str">
         <f ca="1"/>
         <v>A3</v>
       </c>
@@ -2946,7 +4000,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI7" s="17" t="str">
+      <c r="AI7" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -3086,7 +4140,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R8" s="17" t="str">
+      <c r="R8" s="15" t="str">
         <f ca="1"/>
         <v>03</v>
       </c>
@@ -3154,7 +4208,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI8" s="17" t="str">
+      <c r="AI8" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -3294,7 +4348,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R9" s="17" t="str">
+      <c r="R9" s="15" t="str">
         <f ca="1"/>
         <v>A2</v>
       </c>
@@ -3362,7 +4416,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI9" s="17" t="str">
+      <c r="AI9" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -3502,7 +4556,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R10" s="17" t="str">
+      <c r="R10" s="15" t="str">
         <f ca="1"/>
         <v>AA</v>
       </c>
@@ -3570,7 +4624,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI10" s="17" t="str">
+      <c r="AI10" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -3710,7 +4764,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R11" s="17" t="str">
+      <c r="R11" s="15" t="str">
         <f ca="1"/>
         <v>A9</v>
       </c>
@@ -3778,7 +4832,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI11" s="17" t="str">
+      <c r="AI11" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -3918,7 +4972,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R12" s="17" t="str">
+      <c r="R12" s="15" t="str">
         <f ca="1"/>
         <v>A8</v>
       </c>
@@ -3986,7 +5040,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI12" s="17" t="str">
+      <c r="AI12" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -4126,7 +5180,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R13" s="17" t="str">
+      <c r="R13" s="15" t="str">
         <f ca="1"/>
         <v>AF</v>
       </c>
@@ -4194,7 +5248,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI13" s="17" t="str">
+      <c r="AI13" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -4339,7 +5393,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R17" s="17" t="str">
+      <c r="R17" s="15" t="str">
         <f ca="1"/>
         <v>F5</v>
       </c>
@@ -4407,7 +5461,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI17" s="17" t="str">
+      <c r="AI17" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -4547,7 +5601,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R18" s="17" t="str">
+      <c r="R18" s="15" t="str">
         <f ca="1"/>
         <v>F6</v>
       </c>
@@ -4615,7 +5669,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI18" s="17" t="str">
+      <c r="AI18" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -4723,7 +5777,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="J19" s="6" t="str">
+      <c r="J19" s="9" t="str">
         <f ca="1"/>
         <v>A5</v>
       </c>
@@ -4755,7 +5809,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R19" s="17" t="str">
+      <c r="R19" s="15" t="str">
         <f ca="1"/>
         <v>2E</v>
       </c>
@@ -4823,7 +5877,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI19" s="17" t="str">
+      <c r="AI19" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -4931,7 +5985,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="J20" s="6" t="str">
+      <c r="J20" s="9" t="str">
         <f ca="1"/>
         <v>A5</v>
       </c>
@@ -4963,7 +6017,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R20" s="17" t="str">
+      <c r="R20" s="15" t="str">
         <f ca="1"/>
         <v>2E</v>
       </c>
@@ -5031,7 +6085,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI20" s="17" t="str">
+      <c r="AI20" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -5155,7 +6209,7 @@
         <f ca="1"/>
         <v>FF</v>
       </c>
-      <c r="N21" s="4" t="str">
+      <c r="N21" s="9" t="str">
         <f ca="1"/>
         <v>82</v>
       </c>
@@ -5171,7 +6225,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R21" s="17" t="str">
+      <c r="R21" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -5239,7 +6293,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI21" s="17" t="str">
+      <c r="AI21" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -5363,7 +6417,7 @@
         <f ca="1"/>
         <v>FF</v>
       </c>
-      <c r="N22" s="4" t="str">
+      <c r="N22" s="9" t="str">
         <f ca="1"/>
         <v>82</v>
       </c>
@@ -5379,7 +6433,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R22" s="17" t="str">
+      <c r="R22" s="15" t="str">
         <f ca="1"/>
         <v>2C</v>
       </c>
@@ -5447,7 +6501,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI22" s="17" t="str">
+      <c r="AI22" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -5587,7 +6641,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R23" s="17" t="str">
+      <c r="R23" s="15" t="str">
         <f ca="1"/>
         <v>89</v>
       </c>
@@ -5655,7 +6709,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI23" s="17" t="str">
+      <c r="AI23" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -5795,7 +6849,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R24" s="17" t="str">
+      <c r="R24" s="15" t="str">
         <f ca="1"/>
         <v>2F</v>
       </c>
@@ -5863,7 +6917,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI24" s="17" t="str">
+      <c r="AI24" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -5941,7 +6995,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="C25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="C25:AZ25" ca="1">TRANSPOSE(SUBSTITUTE(INDIRECT("AllPacketsTX!"&amp;A25&amp;"$1:"&amp;A25&amp;"$50"),"0x",""))</f>
@@ -6003,7 +7057,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R25" s="17" t="str">
+      <c r="R25" s="15" t="str">
         <f ca="1"/>
         <v>2A</v>
       </c>
@@ -6071,7 +7125,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI25" s="17" t="str">
+      <c r="AI25" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -6149,7 +7203,7 @@
         <v>111</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="C26" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="C26:AZ26" ca="1">TRANSPOSE(SUBSTITUTE(INDIRECT("AllPacketsTX!"&amp;A26&amp;"$1:"&amp;A26&amp;"$50"),"0x",""))</f>
@@ -6211,7 +7265,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R26" s="17" t="str">
+      <c r="R26" s="15" t="str">
         <f ca="1"/>
         <v>29</v>
       </c>
@@ -6279,7 +7333,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI26" s="17" t="str">
+      <c r="AI26" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -6357,7 +7411,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="C27" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="C27:AZ27" ca="1">TRANSPOSE(SUBSTITUTE(INDIRECT("AllPacketsTX!"&amp;A27&amp;"$1:"&amp;A27&amp;"$50"),"0x",""))</f>
@@ -6419,7 +7473,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R27" s="17" t="str">
+      <c r="R27" s="15" t="str">
         <f ca="1"/>
         <v>28</v>
       </c>
@@ -6487,7 +7541,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI27" s="17" t="str">
+      <c r="AI27" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -6565,7 +7619,7 @@
         <v>113</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="C28" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="C28:AZ28" ca="1">TRANSPOSE(SUBSTITUTE(INDIRECT("AllPacketsTX!"&amp;A28&amp;"$1:"&amp;A28&amp;"$50"),"0x",""))</f>
@@ -6627,7 +7681,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R28" s="17" t="str">
+      <c r="R28" s="15" t="str">
         <f ca="1"/>
         <v>2F</v>
       </c>
@@ -6695,7 +7749,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI28" s="17" t="str">
+      <c r="AI28" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -6840,7 +7894,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R31" s="17" t="str">
+      <c r="R31" s="15" t="str">
         <f ca="1"/>
         <v>81</v>
       </c>
@@ -6908,7 +7962,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI31" s="17" t="str">
+      <c r="AI31" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -7048,7 +8102,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R32" s="17" t="str">
+      <c r="R32" s="15" t="str">
         <f ca="1"/>
         <v>80</v>
       </c>
@@ -7116,7 +8170,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI32" s="17" t="str">
+      <c r="AI32" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -7256,7 +8310,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R33" s="17" t="str">
+      <c r="R33" s="15" t="str">
         <f ca="1"/>
         <v>87</v>
       </c>
@@ -7324,7 +8378,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI33" s="17" t="str">
+      <c r="AI33" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -7464,7 +8518,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R34" s="17" t="str">
+      <c r="R34" s="15" t="str">
         <f ca="1"/>
         <v>86</v>
       </c>
@@ -7532,7 +8586,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI34" s="17" t="str">
+      <c r="AI34" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -7672,7 +8726,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R35" s="17" t="str">
+      <c r="R35" s="15" t="str">
         <f ca="1"/>
         <v>85</v>
       </c>
@@ -7740,7 +8794,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI35" s="17" t="str">
+      <c r="AI35" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -7880,7 +8934,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R36" s="17" t="str">
+      <c r="R36" s="15" t="str">
         <f ca="1"/>
         <v>84</v>
       </c>
@@ -7948,7 +9002,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI36" s="17" t="str">
+      <c r="AI36" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -8088,7 +9142,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R37" s="17" t="str">
+      <c r="R37" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -8156,7 +9210,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI37" s="17" t="str">
+      <c r="AI37" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -8296,7 +9350,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R38" s="17" t="str">
+      <c r="R38" s="15" t="str">
         <f ca="1"/>
         <v>8A</v>
       </c>
@@ -8364,7 +9418,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI38" s="17" t="str">
+      <c r="AI38" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -8504,7 +9558,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R39" s="17" t="str">
+      <c r="R39" s="15" t="str">
         <f ca="1"/>
         <v>89</v>
       </c>
@@ -8572,7 +9626,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI39" s="17" t="str">
+      <c r="AI39" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -8712,7 +9766,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R40" s="17" t="str">
+      <c r="R40" s="15" t="str">
         <f ca="1"/>
         <v>88</v>
       </c>
@@ -8780,7 +9834,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI40" s="17" t="str">
+      <c r="AI40" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -8920,7 +9974,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R41" s="17" t="str">
+      <c r="R41" s="15" t="str">
         <f ca="1"/>
         <v>8F</v>
       </c>
@@ -8988,7 +10042,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI41" s="17" t="str">
+      <c r="AI41" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -9128,7 +10182,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R42" s="17" t="str">
+      <c r="R42" s="15" t="str">
         <f ca="1"/>
         <v>8E</v>
       </c>
@@ -9196,7 +10250,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI42" s="17" t="str">
+      <c r="AI42" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -9336,7 +10390,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R43" s="17" t="str">
+      <c r="R43" s="15" t="str">
         <f ca="1"/>
         <v>8D</v>
       </c>
@@ -9404,7 +10458,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI43" s="17" t="str">
+      <c r="AI43" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -9544,7 +10598,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R44" s="17" t="str">
+      <c r="R44" s="15" t="str">
         <f ca="1"/>
         <v>8C</v>
       </c>
@@ -9612,7 +10666,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI44" s="17" t="str">
+      <c r="AI44" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -9752,7 +10806,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R45" s="17" t="str">
+      <c r="R45" s="15" t="str">
         <f ca="1"/>
         <v>83</v>
       </c>
@@ -9820,7 +10874,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI45" s="17" t="str">
+      <c r="AI45" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -9960,7 +11014,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R46" s="17" t="str">
+      <c r="R46" s="15" t="str">
         <f ca="1"/>
         <v>82</v>
       </c>
@@ -10028,7 +11082,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI46" s="17" t="str">
+      <c r="AI46" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -10168,7 +11222,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R47" s="17" t="str">
+      <c r="R47" s="15" t="str">
         <f ca="1"/>
         <v>9E</v>
       </c>
@@ -10236,7 +11290,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI47" s="17" t="str">
+      <c r="AI47" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -10376,7 +11430,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R48" s="17" t="str">
+      <c r="R48" s="15" t="str">
         <f ca="1"/>
         <v>9E</v>
       </c>
@@ -10444,7 +11498,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI48" s="17" t="str">
+      <c r="AI48" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -10584,7 +11638,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R49" s="17" t="str">
+      <c r="R49" s="15" t="str">
         <f ca="1"/>
         <v>9F</v>
       </c>
@@ -10652,7 +11706,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI49" s="17" t="str">
+      <c r="AI49" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -10792,7 +11846,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R50" s="17" t="str">
+      <c r="R50" s="15" t="str">
         <f ca="1"/>
         <v>9B</v>
       </c>
@@ -10860,7 +11914,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI50" s="17" t="str">
+      <c r="AI50" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -11000,7 +12054,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R51" s="17" t="str">
+      <c r="R51" s="15" t="str">
         <f ca="1"/>
         <v>9A</v>
       </c>
@@ -11068,7 +12122,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI51" s="17" t="str">
+      <c r="AI51" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -11208,7 +12262,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R52" s="17" t="str">
+      <c r="R52" s="15" t="str">
         <f ca="1"/>
         <v>99</v>
       </c>
@@ -11276,7 +12330,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI52" s="17" t="str">
+      <c r="AI52" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -11416,7 +12470,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R53" s="17" t="str">
+      <c r="R53" s="15" t="str">
         <f ca="1"/>
         <v>98</v>
       </c>
@@ -11484,7 +12538,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI53" s="17" t="str">
+      <c r="AI53" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -11624,7 +12678,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R54" s="17" t="str">
+      <c r="R54" s="15" t="str">
         <f ca="1"/>
         <v>74</v>
       </c>
@@ -11692,7 +12746,7 @@
         <f ca="1"/>
         <v>FF</v>
       </c>
-      <c r="AI54" s="17" t="str">
+      <c r="AI54" s="15" t="str">
         <f ca="1"/>
         <v>FF</v>
       </c>
@@ -11848,7 +12902,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R57" s="17" t="str">
+      <c r="R57" s="15" t="str">
         <f ca="1"/>
         <v>AC</v>
       </c>
@@ -11916,7 +12970,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI57" s="17" t="str">
+      <c r="AI57" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -12056,7 +13110,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R58" s="17" t="str">
+      <c r="R58" s="15" t="str">
         <f ca="1"/>
         <v>A3</v>
       </c>
@@ -12124,7 +13178,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI58" s="17" t="str">
+      <c r="AI58" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -12264,7 +13318,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R59" s="17" t="str">
+      <c r="R59" s="15" t="str">
         <f ca="1"/>
         <v>A2</v>
       </c>
@@ -12332,7 +13386,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI59" s="17" t="str">
+      <c r="AI59" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -12472,7 +13526,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R60" s="17" t="str">
+      <c r="R60" s="15" t="str">
         <f ca="1"/>
         <v>21</v>
       </c>
@@ -12540,7 +13594,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI60" s="17" t="str">
+      <c r="AI60" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -12680,7 +13734,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R61" s="17" t="str">
+      <c r="R61" s="15" t="str">
         <f ca="1"/>
         <v>20</v>
       </c>
@@ -12748,7 +13802,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI61" s="17" t="str">
+      <c r="AI61" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -12888,7 +13942,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R62" s="17" t="str">
+      <c r="R62" s="15" t="str">
         <f ca="1"/>
         <v>27</v>
       </c>
@@ -12956,7 +14010,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI62" s="17" t="str">
+      <c r="AI62" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -13096,7 +14150,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R63" s="17" t="str">
+      <c r="R63" s="15" t="str">
         <f ca="1"/>
         <v>AB</v>
       </c>
@@ -13164,7 +14218,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="AI63" s="17" t="str">
+      <c r="AI63" s="15" t="str">
         <f ca="1"/>
         <v>8B</v>
       </c>
@@ -13239,10 +14293,10 @@
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C64" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="C64:AZ64" ca="1">TRANSPOSE(SUBSTITUTE(INDIRECT("AllPacketsTX!"&amp;A64&amp;"$1:"&amp;A64&amp;"$50"),"0x",""))</f>
@@ -13304,7 +14358,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R64" s="17" t="str">
+      <c r="R64" s="15" t="str">
         <f ca="1"/>
         <v>2B</v>
       </c>
@@ -13372,7 +14426,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI64" s="17" t="str">
+      <c r="AI64" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -13447,10 +14501,10 @@
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C65" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="C65:AZ65" ca="1">TRANSPOSE(SUBSTITUTE(INDIRECT("AllPacketsTX!"&amp;A65&amp;"$1:"&amp;A65&amp;"$50"),"0x",""))</f>
@@ -13512,7 +14566,7 @@
         <f ca="1"/>
         <v>00</v>
       </c>
-      <c r="R65" s="17" t="str">
+      <c r="R65" s="15" t="str">
         <f ca="1"/>
         <v>AC</v>
       </c>
@@ -13580,7 +14634,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AI65" s="17" t="str">
+      <c r="AI65" s="15" t="str">
         <f ca="1"/>
         <v/>
       </c>
@@ -13666,8 +14720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15F8E68-08D0-4CAC-823D-87C2636A73EF}">
   <dimension ref="B1:CV175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13680,10 +14734,10 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -13719,7 +14773,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3"/>
@@ -13770,7 +14824,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>283</v>
       </c>
       <c r="F16" t="str" cm="1">
@@ -13818,7 +14872,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>285</v>
       </c>
       <c r="E22" s="3"/>
@@ -13869,7 +14923,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>282</v>
       </c>
       <c r="F29" t="str" cm="1">
@@ -13939,7 +14993,7 @@
     </row>
     <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="3:21" x14ac:dyDescent="0.25">
@@ -13954,7 +15008,7 @@
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.25">
@@ -13968,12 +15022,12 @@
       </c>
       <c r="F45" t="str">
         <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F46))</f>
-        <v>AAFD0C84FFFFFFFF014C0002760000B1</v>
+        <v>AAFD0C84FFFFFFFF01480002FF00003C</v>
       </c>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="17" t="s">
-        <v>287</v>
+      <c r="C46" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" t="str" cm="1">
@@ -14005,7 +15059,7 @@
         <v>01</v>
       </c>
       <c r="O46" t="str">
-        <v>4C</v>
+        <v>48</v>
       </c>
       <c r="P46" t="str">
         <v>00</v>
@@ -14014,7 +15068,7 @@
         <v>02</v>
       </c>
       <c r="R46" t="str">
-        <v>76</v>
+        <v>FF</v>
       </c>
       <c r="S46" t="str">
         <v>00</v>
@@ -14023,7 +15077,7 @@
         <v>00</v>
       </c>
       <c r="U46" t="str">
-        <v>B1</v>
+        <v>3C</v>
       </c>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.25">
@@ -14073,7 +15127,7 @@
     </row>
     <row r="57" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
-        <v>202</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="3:21" x14ac:dyDescent="0.25">
@@ -14102,12 +15156,12 @@
       </c>
       <c r="F62" t="str">
         <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F63))</f>
-        <v>AAFD0C84FFFFFFFF81600082A503004D</v>
+        <v>AAFD0C84FFFFFFFF81220082A503000F</v>
       </c>
     </row>
     <row r="63" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C63" s="17" t="s">
-        <v>35</v>
+      <c r="C63" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" t="str" cm="1">
@@ -14139,7 +15193,7 @@
         <v>81</v>
       </c>
       <c r="O63" t="str">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="P63" t="str">
         <v>00</v>
@@ -14157,7 +15211,7 @@
         <v>00</v>
       </c>
       <c r="U63" t="str">
-        <v>4D</v>
+        <v>0F</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -14190,7 +15244,7 @@
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="15" t="s">
         <v>282</v>
       </c>
       <c r="F70" t="str" cm="1">
@@ -14235,7 +15289,7 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C76" s="4" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
@@ -14244,12 +15298,12 @@
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C78" s="17" t="s">
-        <v>288</v>
+      <c r="C78" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="F78" t="str">
         <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F79))</f>
-        <v>AAFD03A01702B6</v>
+        <v>AAFD03A01802B9</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -14268,13 +15322,13 @@
         <v>A0</v>
       </c>
       <c r="J79" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K79" t="str">
         <v>02</v>
       </c>
       <c r="L79" t="str">
-        <v>B6</v>
+        <v>B9</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
@@ -14282,7 +15336,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
@@ -14311,8 +15365,8 @@
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="17" t="s">
-        <v>289</v>
+      <c r="B87" s="15" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
@@ -14341,7 +15395,7 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -14391,7 +15445,7 @@
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14456,7 +15510,7 @@
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14516,7 +15570,7 @@
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -14546,7 +15600,7 @@
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -14576,7 +15630,7 @@
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="15" t="s">
         <v>233</v>
       </c>
     </row>
@@ -14626,8 +15680,8 @@
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="17" t="s">
-        <v>290</v>
+      <c r="B150" s="15" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
@@ -14682,7 +15736,7 @@
     </row>
     <row r="161" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B161" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="2:100" x14ac:dyDescent="0.25">
@@ -14691,8 +15745,8 @@
       </c>
     </row>
     <row r="163" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B163" s="17" t="s">
-        <v>292</v>
+      <c r="B163" s="15" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="164" spans="2:100" x14ac:dyDescent="0.25">
@@ -14721,7 +15775,7 @@
       </c>
     </row>
     <row r="169" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="15" t="s">
         <v>236</v>
       </c>
     </row>
@@ -14755,7 +15809,7 @@
       </c>
     </row>
     <row r="175" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B175" s="17" t="s">
+      <c r="B175" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F175" t="str" cm="1">
@@ -15047,20 +16101,685 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:DD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"FD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"0xFD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"0xAA"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A0B156-B528-431C-B24E-1CA04DF6378E}">
+  <dimension ref="A1:O48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="36"/>
+    <col min="15" max="15" width="145.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="M2" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+    </row>
+    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O26" s="41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O27" s="41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O29" s="43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="44"/>
+    </row>
+    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O33" s="41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O34" s="41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O36" s="43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="46" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="14:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N40" s="30"/>
+      <c r="O40" s="41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="14:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N41" s="30"/>
+      <c r="O41" s="41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="14:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N42" s="29"/>
+      <c r="O42" s="41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="14:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O46" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A7:E7">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"FD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"AA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -15069,7 +16788,7 @@
   <dimension ref="A1:BI100"/>
   <sheetViews>
     <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BF1" sqref="BF1:BF16"/>
+      <selection activeCell="BI2" sqref="BI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18006,7 +19725,7 @@
         <v>147</v>
       </c>
       <c r="BE16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BF16" t="s">
         <v>196</v>
@@ -20588,7 +22307,7 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20616,9 +22335,9 @@
   <dimension ref="A1:DH63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="S29" sqref="S29"/>
+      <selection pane="topRight" activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20641,25 +22360,25 @@
       <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>211</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -20667,13 +22386,13 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
       <c r="U1" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
@@ -20684,13 +22403,13 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
       <c r="AH1" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
@@ -20700,13 +22419,13 @@
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
       <c r="AQ1" s="5"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
       <c r="AT1" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AV1" s="5"/>
       <c r="AW1" s="5"/>
@@ -26763,7 +28482,7 @@
       </c>
       <c r="BC18" t="str">
         <f ca="1"/>
-        <v/>
+        <v>AAFD02034342AAFD0602400020203175AAFD090140003253494D505825AAFD080440000080000008C4AAFD02030302</v>
       </c>
       <c r="BD18" t="str">
         <f ca="1"/>
@@ -45387,10 +47106,10 @@
     <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:XFD1048576">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"FD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45403,7 +47122,7 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A47"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46471,7 +48190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
         <v>1</v>
       </c>
@@ -46479,7 +48198,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
         <v>5</v>
       </c>
@@ -46487,7 +48206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
         <v>46</v>
       </c>
@@ -46495,7 +48214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
         <v>18</v>
       </c>
@@ -46503,20 +48222,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
         <v>15</v>
       </c>
       <c r="J53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="N53" t="str" cm="1">
+        <f t="array" ref="N53">_xlfn.CONCAT(TRANSPOSE(A1:A47))</f>
+        <v>0xAA0xFD0x020x030x430x420xAA0xFD0x060x020x400x000x200x200x310x750xAA0xFD0x090x010x400x000x320x530x490x4D0x500x580x250xAA0xFD0x080x040x400x000x000x800x000x000x080xC40xAA0xFD0x020x030x030x02</v>
+      </c>
+    </row>
+    <row r="54" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
         <v>0</v>
       </c>
@@ -46524,47 +48247,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I61" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
         <v>5</v>
       </c>
@@ -46756,10 +48479,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="0xFD">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="0xFD">
       <formula>NOT(ISERROR(SEARCH("0xFD",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="0xAA">
+    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="0xAA">
       <formula>NOT(ISERROR(SEARCH("0xAA",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46795,7 +48518,7 @@
       <c r="D2" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
@@ -46804,7 +48527,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="0xFF">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="0xFF">
       <formula>NOT(ISERROR(SEARCH("0xFF",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46816,7 +48539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6890003-6BCB-43D4-B3CF-C1199841BA70}">
   <dimension ref="A1:AR59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -46828,36 +48553,36 @@
       <c r="A1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="AE1" s="24" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="AE1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AK1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AP1" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>262</v>
       </c>
     </row>
@@ -46881,7 +48606,7 @@
       <c r="F2" s="6" t="str">
         <v>40</v>
       </c>
-      <c r="G2" s="17" t="str">
+      <c r="G2" s="15" t="str">
         <v>67</v>
       </c>
       <c r="H2" s="4" t="str">
@@ -46899,7 +48624,7 @@
       <c r="L2" s="6" t="str">
         <v>40</v>
       </c>
-      <c r="M2" s="17" t="str">
+      <c r="M2" s="15" t="str">
         <v>65</v>
       </c>
       <c r="N2" s="4" t="str">
@@ -46938,7 +48663,7 @@
       <c r="Y2" s="6" t="str">
         <v>20</v>
       </c>
-      <c r="Z2" s="17" t="str">
+      <c r="Z2" s="15" t="str">
         <v>3C</v>
       </c>
       <c r="AA2" s="4" t="str">
@@ -46956,7 +48681,7 @@
       <c r="AE2" s="6" t="str">
         <v>00</v>
       </c>
-      <c r="AF2" s="17" t="str">
+      <c r="AF2" s="15" t="str">
         <v>01</v>
       </c>
       <c r="AG2" s="4" t="str">
@@ -46974,7 +48699,7 @@
       <c r="AK2" s="6" t="str">
         <v>00</v>
       </c>
-      <c r="AL2" s="17" t="str">
+      <c r="AL2" s="15" t="str">
         <v>26</v>
       </c>
       <c r="AM2" s="4" t="str">
@@ -46989,10 +48714,10 @@
       <c r="AP2" s="6" t="str">
         <v>23</v>
       </c>
-      <c r="AQ2" s="20" t="str">
+      <c r="AQ2" s="4" t="str">
         <v>01</v>
       </c>
-      <c r="AR2" s="17" t="str">
+      <c r="AR2" s="15" t="str">
         <v>20</v>
       </c>
     </row>
@@ -47013,10 +48738,10 @@
       <c r="E3" s="4" t="str">
         <v>25</v>
       </c>
-      <c r="F3" s="20" t="str">
+      <c r="F3" s="4" t="str">
         <v>40</v>
       </c>
-      <c r="G3" s="17" t="str">
+      <c r="G3" s="15" t="str">
         <v>67</v>
       </c>
       <c r="H3" s="4" t="str">
@@ -47034,7 +48759,7 @@
       <c r="L3" s="4" t="str">
         <v>40</v>
       </c>
-      <c r="M3" s="17" t="str">
+      <c r="M3" s="15" t="str">
         <v>65</v>
       </c>
       <c r="N3" s="4" t="str">
@@ -47073,7 +48798,7 @@
       <c r="Y3" s="6" t="str">
         <v>20</v>
       </c>
-      <c r="Z3" s="17" t="str">
+      <c r="Z3" s="15" t="str">
         <v>3A</v>
       </c>
       <c r="AA3" s="4" t="str">
@@ -47091,7 +48816,7 @@
       <c r="AE3" s="4" t="str">
         <v>00</v>
       </c>
-      <c r="AF3" s="17" t="str">
+      <c r="AF3" s="15" t="str">
         <v>01</v>
       </c>
       <c r="AG3" s="4" t="str">
@@ -47109,7 +48834,7 @@
       <c r="AK3" s="4" t="str">
         <v>00</v>
       </c>
-      <c r="AL3" s="17" t="str">
+      <c r="AL3" s="15" t="str">
         <v>21</v>
       </c>
       <c r="AM3" s="4" t="str">
@@ -47124,10 +48849,10 @@
       <c r="AP3" s="6" t="str">
         <v>24</v>
       </c>
-      <c r="AQ3" s="20" t="str">
+      <c r="AQ3" s="4" t="str">
         <v>01</v>
       </c>
-      <c r="AR3" s="17" t="str">
+      <c r="AR3" s="15" t="str">
         <v>27</v>
       </c>
     </row>
@@ -47148,10 +48873,10 @@
       <c r="E4" s="4" t="str">
         <v>25</v>
       </c>
-      <c r="F4" s="20" t="str">
+      <c r="F4" s="4" t="str">
         <v>40</v>
       </c>
-      <c r="G4" s="17" t="str">
+      <c r="G4" s="15" t="str">
         <v>67</v>
       </c>
       <c r="H4" s="4" t="str">
@@ -47169,7 +48894,7 @@
       <c r="L4" s="4" t="str">
         <v>40</v>
       </c>
-      <c r="M4" s="17" t="str">
+      <c r="M4" s="15" t="str">
         <v>65</v>
       </c>
       <c r="N4" s="4" t="str">
@@ -47208,7 +48933,7 @@
       <c r="Y4" s="6" t="str">
         <v>20</v>
       </c>
-      <c r="Z4" s="17" t="str">
+      <c r="Z4" s="15" t="str">
         <v>39</v>
       </c>
       <c r="AA4" s="4" t="str">
@@ -47226,7 +48951,7 @@
       <c r="AE4" s="4" t="str">
         <v>00</v>
       </c>
-      <c r="AF4" s="17" t="str">
+      <c r="AF4" s="15" t="str">
         <v>01</v>
       </c>
       <c r="AG4" s="4" t="str">
@@ -47244,7 +48969,7 @@
       <c r="AK4" s="4" t="str">
         <v>00</v>
       </c>
-      <c r="AL4" s="17" t="str">
+      <c r="AL4" s="15" t="str">
         <v>21</v>
       </c>
       <c r="AM4" s="4" t="str">
@@ -47259,10 +48984,10 @@
       <c r="AP4" s="6" t="str">
         <v>24</v>
       </c>
-      <c r="AQ4" s="20" t="str">
+      <c r="AQ4" s="4" t="str">
         <v>01</v>
       </c>
-      <c r="AR4" s="17" t="str">
+      <c r="AR4" s="15" t="str">
         <v>27</v>
       </c>
     </row>
@@ -47283,10 +49008,10 @@
       <c r="E5" s="4" t="str">
         <v>25</v>
       </c>
-      <c r="F5" s="20" t="str">
+      <c r="F5" s="4" t="str">
         <v>40</v>
       </c>
-      <c r="G5" s="17" t="str">
+      <c r="G5" s="15" t="str">
         <v>67</v>
       </c>
       <c r="H5" s="4" t="str">
@@ -47304,7 +49029,7 @@
       <c r="L5" s="4" t="str">
         <v>40</v>
       </c>
-      <c r="M5" s="17" t="str">
+      <c r="M5" s="15" t="str">
         <v>65</v>
       </c>
       <c r="N5" s="4" t="str">
@@ -47343,7 +49068,7 @@
       <c r="Y5" s="6" t="str">
         <v>20</v>
       </c>
-      <c r="Z5" s="17" t="str">
+      <c r="Z5" s="15" t="str">
         <v>46</v>
       </c>
       <c r="AA5" s="4" t="str">
@@ -47361,7 +49086,7 @@
       <c r="AE5" s="4" t="str">
         <v>00</v>
       </c>
-      <c r="AF5" s="17" t="str">
+      <c r="AF5" s="15" t="str">
         <v>01</v>
       </c>
       <c r="AG5" s="4" t="str">
@@ -47379,7 +49104,7 @@
       <c r="AK5" s="4" t="str">
         <v>00</v>
       </c>
-      <c r="AL5" s="17" t="str">
+      <c r="AL5" s="15" t="str">
         <v>26</v>
       </c>
       <c r="AM5" s="4" t="str">
@@ -47397,12 +49122,9 @@
       <c r="AQ5" s="6" t="str">
         <v>00</v>
       </c>
-      <c r="AR5" s="17" t="str">
+      <c r="AR5" s="15" t="str">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AQ6" s="20"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -47424,7 +49146,7 @@
       <c r="F7" s="6" t="str">
         <v>C0</v>
       </c>
-      <c r="G7" s="17" t="str">
+      <c r="G7" s="15" t="str">
         <v>E7</v>
       </c>
       <c r="H7" s="4" t="str">
@@ -47442,7 +49164,7 @@
       <c r="L7" s="6" t="str">
         <v>C0</v>
       </c>
-      <c r="M7" s="17" t="str">
+      <c r="M7" s="15" t="str">
         <v>E5</v>
       </c>
       <c r="N7" s="4" t="str">
@@ -47481,7 +49203,7 @@
       <c r="Y7" s="6" t="str">
         <v>20</v>
       </c>
-      <c r="Z7" s="17" t="str">
+      <c r="Z7" s="15" t="str">
         <v>BC</v>
       </c>
       <c r="AA7" s="4" t="str">
@@ -47499,7 +49221,7 @@
       <c r="AE7" s="6" t="str">
         <v>80</v>
       </c>
-      <c r="AF7" s="17" t="str">
+      <c r="AF7" s="15" t="str">
         <v>81</v>
       </c>
       <c r="AG7" s="4" t="str">
@@ -47517,7 +49239,7 @@
       <c r="AK7" s="6" t="str">
         <v>80</v>
       </c>
-      <c r="AL7" s="17" t="str">
+      <c r="AL7" s="15" t="str">
         <v>A6</v>
       </c>
       <c r="AM7" s="4" t="str">
@@ -47532,10 +49254,10 @@
       <c r="AP7" s="6" t="str">
         <v>23</v>
       </c>
-      <c r="AQ7" s="20" t="str">
+      <c r="AQ7" s="4" t="str">
         <v>81</v>
       </c>
-      <c r="AR7" s="17" t="str">
+      <c r="AR7" s="15" t="str">
         <v>A0</v>
       </c>
     </row>
@@ -47556,10 +49278,10 @@
       <c r="E8" s="4" t="str">
         <v>25</v>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="4" t="str">
         <v>C0</v>
       </c>
-      <c r="G8" s="17" t="str">
+      <c r="G8" s="15" t="str">
         <v>E7</v>
       </c>
       <c r="H8" s="4" t="str">
@@ -47577,7 +49299,7 @@
       <c r="L8" s="4" t="str">
         <v>C0</v>
       </c>
-      <c r="M8" s="17" t="str">
+      <c r="M8" s="15" t="str">
         <v>E5</v>
       </c>
       <c r="N8" s="4" t="str">
@@ -47616,7 +49338,7 @@
       <c r="Y8" s="6" t="str">
         <v>20</v>
       </c>
-      <c r="Z8" s="17" t="str">
+      <c r="Z8" s="15" t="str">
         <v>BA</v>
       </c>
       <c r="AA8" s="4" t="str">
@@ -47634,7 +49356,7 @@
       <c r="AE8" s="4" t="str">
         <v>80</v>
       </c>
-      <c r="AF8" s="17" t="str">
+      <c r="AF8" s="15" t="str">
         <v>81</v>
       </c>
       <c r="AG8" s="4" t="str">
@@ -47652,7 +49374,7 @@
       <c r="AK8" s="4" t="str">
         <v>80</v>
       </c>
-      <c r="AL8" s="17" t="str">
+      <c r="AL8" s="15" t="str">
         <v>A1</v>
       </c>
       <c r="AM8" s="4" t="str">
@@ -47667,10 +49389,10 @@
       <c r="AP8" s="6" t="str">
         <v>24</v>
       </c>
-      <c r="AQ8" s="20" t="str">
+      <c r="AQ8" s="4" t="str">
         <v>81</v>
       </c>
-      <c r="AR8" s="17" t="str">
+      <c r="AR8" s="15" t="str">
         <v>A7</v>
       </c>
     </row>
@@ -47691,10 +49413,10 @@
       <c r="E9" s="4" t="str">
         <v>25</v>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="4" t="str">
         <v>C0</v>
       </c>
-      <c r="G9" s="17" t="str">
+      <c r="G9" s="15" t="str">
         <v>E7</v>
       </c>
       <c r="H9" s="4" t="str">
@@ -47712,7 +49434,7 @@
       <c r="L9" s="4" t="str">
         <v>C0</v>
       </c>
-      <c r="M9" s="17" t="str">
+      <c r="M9" s="15" t="str">
         <v>E5</v>
       </c>
       <c r="N9" s="4" t="str">
@@ -47751,7 +49473,7 @@
       <c r="Y9" s="6" t="str">
         <v>20</v>
       </c>
-      <c r="Z9" s="17" t="str">
+      <c r="Z9" s="15" t="str">
         <v>B9</v>
       </c>
       <c r="AA9" s="4" t="str">
@@ -47769,7 +49491,7 @@
       <c r="AE9" s="4" t="str">
         <v>80</v>
       </c>
-      <c r="AF9" s="17" t="str">
+      <c r="AF9" s="15" t="str">
         <v>81</v>
       </c>
       <c r="AG9" s="4" t="str">
@@ -47787,7 +49509,7 @@
       <c r="AK9" s="4" t="str">
         <v>80</v>
       </c>
-      <c r="AL9" s="17" t="str">
+      <c r="AL9" s="15" t="str">
         <v>A1</v>
       </c>
       <c r="AM9" s="4" t="str">
@@ -47802,10 +49524,10 @@
       <c r="AP9" s="6" t="str">
         <v>24</v>
       </c>
-      <c r="AQ9" s="20" t="str">
+      <c r="AQ9" s="4" t="str">
         <v>81</v>
       </c>
-      <c r="AR9" s="17" t="str">
+      <c r="AR9" s="15" t="str">
         <v>A7</v>
       </c>
     </row>
@@ -47826,10 +49548,10 @@
       <c r="E10" s="4" t="str">
         <v>25</v>
       </c>
-      <c r="F10" s="20" t="str">
+      <c r="F10" s="4" t="str">
         <v>C0</v>
       </c>
-      <c r="G10" s="17" t="str">
+      <c r="G10" s="15" t="str">
         <v>E7</v>
       </c>
       <c r="H10" s="4" t="str">
@@ -47847,7 +49569,7 @@
       <c r="L10" s="4" t="str">
         <v>C0</v>
       </c>
-      <c r="M10" s="17" t="str">
+      <c r="M10" s="15" t="str">
         <v>E5</v>
       </c>
       <c r="N10" s="4" t="str">
@@ -47886,7 +49608,7 @@
       <c r="Y10" s="6" t="str">
         <v>20</v>
       </c>
-      <c r="Z10" s="17" t="str">
+      <c r="Z10" s="15" t="str">
         <v>C6</v>
       </c>
       <c r="AA10" s="4" t="str">
@@ -47904,7 +49626,7 @@
       <c r="AE10" s="4" t="str">
         <v>80</v>
       </c>
-      <c r="AF10" s="17" t="str">
+      <c r="AF10" s="15" t="str">
         <v>81</v>
       </c>
       <c r="AG10" s="4" t="str">
@@ -47922,7 +49644,7 @@
       <c r="AK10" s="4" t="str">
         <v>80</v>
       </c>
-      <c r="AL10" s="17" t="str">
+      <c r="AL10" s="15" t="str">
         <v>A6</v>
       </c>
       <c r="AM10" s="4" t="str">
@@ -47940,7 +49662,7 @@
       <c r="AQ10" s="6" t="str">
         <v>80</v>
       </c>
-      <c r="AR10" s="17" t="str">
+      <c r="AR10" s="15" t="str">
         <v>A1</v>
       </c>
     </row>
@@ -47950,7 +49672,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>222</v>
       </c>
     </row>
@@ -49081,59 +50803,59 @@
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D11:XFD11 B11 A12:XFD1048576 A2:XFD10">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+  <conditionalFormatting sqref="A2:XFD10 B11 D11:XFD11 A12:XFD1048576">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"FD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"FD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"FD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"FD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"FD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"FD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"FD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49145,8 +50867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89532B3-11EA-43FB-8C77-E51E3C9C7D72}">
   <dimension ref="A1:BM70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="N2:S2"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AU14" sqref="AU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49160,54 +50882,55 @@
     <col min="48" max="54" width="9.140625" style="4"/>
     <col min="55" max="55" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="9.140625" style="4"/>
+    <col min="58" max="58" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="Y1" s="24" t="s">
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="Y1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AE1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AK1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AT1" s="23" t="s">
+      <c r="AT1" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="AU1" s="23" t="s">
+      <c r="AU1" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="AW1" s="23" t="s">
+      <c r="AW1" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="BC1" s="24" t="s">
+      <c r="BC1" s="19" t="s">
         <v>243</v>
       </c>
     </row>
@@ -49231,7 +50954,7 @@
       <c r="F2" s="6" t="str">
         <v>43</v>
       </c>
-      <c r="G2" s="17" t="str">
+      <c r="G2" s="15" t="str">
         <v>42</v>
       </c>
       <c r="H2" s="4" t="str">
@@ -49270,7 +50993,7 @@
       <c r="S2" s="6" t="str">
         <v>30</v>
       </c>
-      <c r="T2" s="17" t="str">
+      <c r="T2" s="15" t="str">
         <v>4E</v>
       </c>
       <c r="U2" s="4" t="str">
@@ -49288,7 +51011,7 @@
       <c r="Y2" s="6" t="str">
         <v>41</v>
       </c>
-      <c r="Z2" s="17" t="str">
+      <c r="Z2" s="15" t="str">
         <v>66</v>
       </c>
       <c r="AA2" s="4" t="str">
@@ -49303,10 +51026,10 @@
       <c r="AD2" s="4" t="str">
         <v>26</v>
       </c>
-      <c r="AE2" s="25" t="str">
+      <c r="AE2" s="13" t="str">
         <v>40</v>
       </c>
-      <c r="AF2" s="17" t="str">
+      <c r="AF2" s="15" t="str">
         <v>64</v>
       </c>
       <c r="AG2" s="4" t="str">
@@ -49321,10 +51044,10 @@
       <c r="AJ2" s="4" t="str">
         <v>27</v>
       </c>
-      <c r="AK2" s="25" t="str">
+      <c r="AK2" s="13" t="str">
         <v>40</v>
       </c>
-      <c r="AL2" s="17" t="str">
+      <c r="AL2" s="15" t="str">
         <v>65</v>
       </c>
       <c r="AM2" s="4" t="str">
@@ -49360,7 +51083,7 @@
       <c r="AW2" s="6" t="str">
         <v>00</v>
       </c>
-      <c r="AX2" s="17" t="str">
+      <c r="AX2" s="15" t="str">
         <v>CC</v>
       </c>
       <c r="AY2" s="4" t="str">
@@ -49378,7 +51101,7 @@
       <c r="BC2" s="6" t="str">
         <v>03</v>
       </c>
-      <c r="BD2" s="17" t="str">
+      <c r="BD2" s="15" t="str">
         <v>02</v>
       </c>
       <c r="BE2" t="str">
@@ -49429,7 +51152,7 @@
       <c r="F3" s="6" t="str">
         <v>43</v>
       </c>
-      <c r="G3" s="17" t="str">
+      <c r="G3" s="15" t="str">
         <v>42</v>
       </c>
       <c r="H3" s="4" t="str">
@@ -49459,7 +51182,7 @@
       <c r="P3" s="6" t="str">
         <v>33</v>
       </c>
-      <c r="Q3" s="17" t="str">
+      <c r="Q3" s="15" t="str">
         <v>77</v>
       </c>
       <c r="R3" s="4" t="str">
@@ -49507,7 +51230,7 @@
       <c r="AF3" s="6" t="str">
         <v>20</v>
       </c>
-      <c r="AG3" s="17" t="str">
+      <c r="AG3" s="15" t="str">
         <v>58</v>
       </c>
       <c r="AH3" s="4" t="str">
@@ -49534,7 +51257,7 @@
       <c r="AO3" s="4" t="str">
         <v>08</v>
       </c>
-      <c r="AP3" s="20" t="str">
+      <c r="AP3" s="4" t="str">
         <v>04</v>
       </c>
       <c r="AQ3" s="6" t="str">
@@ -49558,7 +51281,7 @@
       <c r="AW3" s="6" t="str">
         <v>08</v>
       </c>
-      <c r="AX3" s="17" t="str">
+      <c r="AX3" s="15" t="str">
         <v>C4</v>
       </c>
       <c r="AY3" s="4" t="str">
@@ -49576,7 +51299,7 @@
       <c r="BC3" s="6" t="str">
         <v>03</v>
       </c>
-      <c r="BD3" s="17" t="str">
+      <c r="BD3" s="15" t="str">
         <v>02</v>
       </c>
       <c r="BE3" t="str">
@@ -49608,41 +51331,29 @@
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="AA4" s="22" t="s">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="AA4" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -49664,7 +51375,7 @@
       <c r="F6" s="6" t="str">
         <v>C3</v>
       </c>
-      <c r="G6" s="17" t="str">
+      <c r="G6" s="15" t="str">
         <v>C2</v>
       </c>
       <c r="H6" s="4" t="str">
@@ -49703,7 +51414,7 @@
       <c r="S6" s="6" t="str">
         <v>30</v>
       </c>
-      <c r="T6" s="17" t="str">
+      <c r="T6" s="15" t="str">
         <v>CC</v>
       </c>
       <c r="U6" s="4" t="str">
@@ -49721,25 +51432,25 @@
       <c r="Y6" s="6" t="str">
         <v>C1</v>
       </c>
-      <c r="Z6" s="17" t="str">
+      <c r="Z6" s="15" t="str">
         <v>E6</v>
       </c>
-      <c r="AA6" s="20" t="str">
+      <c r="AA6" s="4" t="str">
         <v>AA</v>
       </c>
       <c r="AB6" s="7" t="str">
         <v>FD</v>
       </c>
-      <c r="AC6" s="20" t="str">
+      <c r="AC6" s="4" t="str">
         <v>02</v>
       </c>
-      <c r="AD6" s="20" t="str">
+      <c r="AD6" s="4" t="str">
         <v>26</v>
       </c>
-      <c r="AE6" s="25" t="str">
+      <c r="AE6" s="13" t="str">
         <v>C0</v>
       </c>
-      <c r="AF6" s="20" t="str">
+      <c r="AF6" s="4" t="str">
         <v>E4</v>
       </c>
       <c r="AG6" s="4" t="str">
@@ -49754,10 +51465,10 @@
       <c r="AJ6" s="4" t="str">
         <v>27</v>
       </c>
-      <c r="AK6" s="25" t="str">
+      <c r="AK6" s="13" t="str">
         <v>C0</v>
       </c>
-      <c r="AL6" s="17" t="str">
+      <c r="AL6" s="15" t="str">
         <v>E5</v>
       </c>
       <c r="AM6" s="4" t="str">
@@ -49793,7 +51504,7 @@
       <c r="AW6" s="6" t="str">
         <v>00</v>
       </c>
-      <c r="AX6" s="17" t="str">
+      <c r="AX6" s="15" t="str">
         <v>CC</v>
       </c>
       <c r="AY6" s="4" t="str">
@@ -49811,7 +51522,7 @@
       <c r="BC6" s="6" t="str">
         <v>83</v>
       </c>
-      <c r="BD6" s="17" t="str">
+      <c r="BD6" s="15" t="str">
         <v>82</v>
       </c>
       <c r="BE6" t="str">
@@ -49862,7 +51573,7 @@
       <c r="F7" s="6" t="str">
         <v>C3</v>
       </c>
-      <c r="G7" s="17" t="str">
+      <c r="G7" s="15" t="str">
         <v>C2</v>
       </c>
       <c r="H7" s="4" t="str">
@@ -49892,7 +51603,7 @@
       <c r="P7" s="6" t="str">
         <v>33</v>
       </c>
-      <c r="Q7" s="17" t="str">
+      <c r="Q7" s="15" t="str">
         <v>F7</v>
       </c>
       <c r="R7" s="4" t="str">
@@ -49922,25 +51633,25 @@
       <c r="Z7" s="4" t="str">
         <v>00</v>
       </c>
-      <c r="AA7" s="20" t="str">
+      <c r="AA7" s="4" t="str">
         <v>32</v>
       </c>
-      <c r="AB7" s="20" t="str">
+      <c r="AB7" s="4" t="str">
         <v>43</v>
       </c>
-      <c r="AC7" s="20" t="str">
+      <c r="AC7" s="4" t="str">
         <v>41</v>
       </c>
-      <c r="AD7" s="20" t="str">
+      <c r="AD7" s="4" t="str">
         <v>4C</v>
       </c>
-      <c r="AE7" s="20" t="str">
+      <c r="AE7" s="4" t="str">
         <v>4C</v>
       </c>
-      <c r="AF7" s="20" t="str">
+      <c r="AF7" s="4" t="str">
         <v>20</v>
       </c>
-      <c r="AG7" s="17" t="str">
+      <c r="AG7" s="15" t="str">
         <v>D8</v>
       </c>
       <c r="AH7" s="4" t="str">
@@ -49991,7 +51702,7 @@
       <c r="AW7" s="6" t="str">
         <v>08</v>
       </c>
-      <c r="AX7" s="17" t="str">
+      <c r="AX7" s="15" t="str">
         <v>C4</v>
       </c>
       <c r="AY7" s="4" t="str">
@@ -50009,7 +51720,7 @@
       <c r="BC7" s="6" t="str">
         <v>83</v>
       </c>
-      <c r="BD7" s="17" t="str">
+      <c r="BD7" s="15" t="str">
         <v>82</v>
       </c>
       <c r="BE7" t="str">
@@ -50041,17 +51752,11 @@
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="str" cm="1">
@@ -50449,7 +52154,7 @@
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>222</v>
       </c>
       <c r="AK12" s="4" t="s">
@@ -50460,16 +52165,15 @@
       <c r="A13" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AG13" s="20"/>
     </row>
     <row r="14" spans="1:65" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AT14" s="21" t="s">
+      <c r="AT14" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="AU14" s="21" t="s">
+      <c r="AU14" s="17" t="s">
         <v>271</v>
       </c>
       <c r="AV14" s="4" t="s">
@@ -50496,7 +52200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
@@ -50516,7 +52220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -50536,7 +52240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
@@ -50556,7 +52260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
@@ -50576,7 +52280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
@@ -50596,7 +52300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
@@ -50654,8 +52358,11 @@
       <c r="AQ22" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="BF22" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
@@ -50678,7 +52385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>17</v>
       </c>
@@ -50700,8 +52407,14 @@
       <c r="AD24" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="BD24" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="BF24" s="27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
@@ -50723,8 +52436,14 @@
       <c r="AD25" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="BD25" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="BF25" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
@@ -50747,7 +52466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
@@ -50770,7 +52489,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>37</v>
       </c>
@@ -50793,7 +52512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
@@ -50816,7 +52535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
@@ -50839,7 +52558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
@@ -50862,7 +52581,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
@@ -51656,23 +53375,312 @@
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="N5:S5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B11:XFD13 A9:XFD10 Q4:AA4 A6:P7 A8:N8 Q6:AA8 T5:AA5 A4:N5 A1:N1 A2:XFD3 AG4:XFD8 T1:XFD1 A14:XFD1048576">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+  <conditionalFormatting sqref="A1:N1 T1:XFD1 A2:XFD3 Q4:AA4 A4:N5 AG4:XFD8 T5:AA5 A6:P7 Q6:AA8 A8:N8">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"FD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A13">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+  <conditionalFormatting sqref="A9:XFD21 A23:XFD23 A22:BE22 BG22:XFD22 A26:XFD1048576 A24:BE25 BG24:XFD25">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"FD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE6">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"FD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"AA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08C0377-036C-40B2-90AA-F809ED88AEF2}">
+  <dimension ref="B1:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L19" t="str" cm="1">
+        <f t="array" ref="L19">SUBSTITUTE(TRANSPOSE(_xlfn.CONCAT(B2:B7)),"0x","")</f>
+        <v>AAFD021D031C</v>
+      </c>
+      <c r="M19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L20" t="str" cm="1">
+        <f t="array" ref="L20">SUBSTITUTE(TRANSPOSE(_xlfn.CONCAT(B8:B13)),"0x","")</f>
+        <v>AAFD02150116</v>
+      </c>
+      <c r="M20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L21" t="str" cm="1">
+        <f t="array" ref="L21">SUBSTITUTE(TRANSPOSE(_xlfn.CONCAT(C2:C7)),"0x","")</f>
+        <v>AAFD021D001F</v>
+      </c>
+      <c r="M21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L22" t="str" cm="1">
+        <f t="array" ref="L22">SUBSTITUTE(TRANSPOSE(_xlfn.CONCAT(C8:C13)),"0x","")</f>
+        <v>AAFD02150017</v>
+      </c>
+      <c r="M22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G13">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"FD"</formula>
     </cfRule>
@@ -51682,256 +53690,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08C0377-036C-40B2-90AA-F809ED88AEF2}">
-  <dimension ref="B1:L13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5" t="s">
-        <v>206</v>
-      </c>
-      <c r="J5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G2:G13">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"FD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"AA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>